--- a/jacobi/src/test/resources/jacobi/test/data/SubstitutionTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SubstitutionTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8220" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Upper Full Rank 5x5x1" sheetId="1" r:id="rId1"/>
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A23"/>
     </sheetView>
   </sheetViews>
@@ -1746,901 +1746,901 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(-50, 50)</f>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B1">
-        <f t="shared" ref="B1:G16" ca="1" si="0">RANDBETWEEN(-50, 50)</f>
-        <v>7</v>
+        <f t="shared" ref="B1:G15" ca="1" si="0">RANDBETWEEN(-50, 50)</f>
+        <v>8</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-16</v>
+        <v>-43</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-17</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-37</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="F1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-43</v>
-      </c>
-      <c r="G1">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:G30" ca="1" si="1">RANDBETWEEN(-50, 50)</f>
-        <v>12</v>
+        <f t="shared" ref="A2:A15" ca="1" si="1">RANDBETWEEN(-50, 50)</f>
+        <v>25</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-49</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-28</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>-36</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-35</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-22</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-33</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>-49</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-29</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-48</v>
+        <v>-20</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>-8</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>-27</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>-50</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-24</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-49</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>-42</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>-12</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>-42</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-42</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
         <v>-16</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-28</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
+        <v>-39</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
+        <v>-42</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
         <v>-13</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>-8</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-19</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-34</v>
+        <v>-44</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-37</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>-11</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>-11</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-36</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-28</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-42</v>
+        <v>-21</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>-14</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-42</v>
-      </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-38</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>-36</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-26</v>
+        <v>-41</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>-18</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">RAND()*4-2</f>
-        <v>-0.1309619286423267</v>
+        <v>-0.53840806481601389</v>
       </c>
       <c r="B16">
         <f t="shared" ref="B16:G30" ca="1" si="2">RAND()*4-2</f>
-        <v>0.50638271995080197</v>
+        <v>-1.0199032539405017</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8277565680161412</v>
+        <v>1.5249073478187363</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.56364845468432945</v>
+        <v>0.99139317007715144</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.24151073354075425</v>
+        <v>1.7993894826001249</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9493732263139774</v>
+        <v>-1.3379939285328613</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.85948295416944065</v>
+        <v>-0.3299582359572133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17:A30" ca="1" si="3">RAND()*4-2</f>
-        <v>-1.3163948608918479</v>
+        <v>-1.7890865719661613</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1206460007297574</v>
+        <v>-0.15285911044676936</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2161435045778917</v>
+        <v>-0.35968693926018958</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>1.926775504295446</v>
+        <v>-0.81712546870704772</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.72252319216863681</v>
+        <v>-0.86248237454649557</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>1.36476564019459</v>
+        <v>1.1119304859519064</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.25277480857023171</v>
+        <v>-2.4470585754283736E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9375050900893749</v>
+        <v>-6.3639279702578655E-2</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7399627098684096</v>
+        <v>0.57895804793779115</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2157420140307331</v>
+        <v>0.77836858847478307</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25117552155677014</v>
+        <v>0.24914964470845202</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7048066232695116</v>
+        <v>-0.63931218567407155</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.440567895710084</v>
+        <v>0.60808723580033641</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.76332473924257682</v>
+        <v>1.0267385516675587</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73219755736546555</v>
+        <v>-0.6126904951736738</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60426355114023078</v>
+        <v>-1.92139477408604</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1787722777654115</v>
+        <v>1.1363963070288849</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2765862744373031E-2</v>
+        <v>1.1053195157915154</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47493364908242075</v>
+        <v>-1.4683525589667297</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48473452817906937</v>
+        <v>0.83030419858917748</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.24208300777536174</v>
+        <v>-1.9681532810505971</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8372398185409669</v>
+        <v>0.3075879602475351</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2479350184051725</v>
+        <v>9.3749292212697899E-2</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4087522595077138</v>
+        <v>0.51361517282228375</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6582436658969972</v>
+        <v>-1.2084147752402417</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1250322210065367</v>
+        <v>1.2507411069104091</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5657468781253003</v>
+        <v>1.3014316572438611</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4268179696413981E-2</v>
+        <v>1.864379449575789</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69828002280019552</v>
+        <v>9.3271864863101239E-2</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6670016728225763</v>
+        <v>0.11611947375574028</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26038548968358288</v>
+        <v>-0.16371197900158618</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52877876276588509</v>
+        <v>0.65633785159657343</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.6496389453150293E-2</v>
+        <v>0.31171868097239175</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74561926897134523</v>
+        <v>1.2493522851118932E-2</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.35147532200724463</v>
+        <v>1.2600321831792511</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5418993425372371</v>
+        <v>0.26852637104723609</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9751201987561786</v>
+        <v>-1.0062160288468456</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3449541535511496</v>
+        <v>-1.3332126014183419</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6940935850331291</v>
+        <v>1.7673454877512635</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5727939951243552</v>
+        <v>0.16750576085704605</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4868460938538819</v>
+        <v>0.61687908456699203</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7366009166947092</v>
+        <v>0.20639243141244457</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="3"/>
-        <v>4.048798256361863E-2</v>
+        <v>0.83544937524048235</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>1.653907283525077</v>
+        <v>0.71792868711915814</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7082318069094389</v>
+        <v>-0.2094348106902828</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4656186119953398</v>
+        <v>-1.46176005783013</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.406999593671149</v>
+        <v>0.45528876490880599</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.25984514070640197</v>
+        <v>-1.0069266386204987</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3589307023368726</v>
+        <v>0.52565631048832584</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3328815325454002</v>
+        <v>-1.793443322675464</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5049962278708349</v>
+        <v>0.58073255189898365</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.7283544021569348E-2</v>
+        <v>0.51274902944382106</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.1522928081795607</v>
+        <v>0.98566483967467899</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83842644028154112</v>
+        <v>-1.2326620125383463</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80480114356422039</v>
+        <v>1.0606249863146937</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.165116808415807</v>
+        <v>-0.92960831599093208</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.94260898122612469</v>
+        <v>0.25712207121038144</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93313524133873882</v>
+        <v>-1.5438346095475768</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0404658118549812</v>
+        <v>1.1071045200918479</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5370700837663898</v>
+        <v>-1.9087689384318853</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8214968499043507</v>
+        <v>5.2022189449397516E-2</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.89940983472593183</v>
+        <v>0.56351745431485201</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0173294575560661</v>
+        <v>-0.51766764551215294</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66017051016825956</v>
+        <v>-1.4224943245707955</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85504274297952154</v>
+        <v>1.3495560035109984</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.13985393611645547</v>
+        <v>-1.2177602141653576</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13865393924813985</v>
+        <v>0.85725148028204234</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>1.297328431318491</v>
+        <v>-0.69636589817558514</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7477314927971457</v>
+        <v>-0.42519202190683547</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51095519264491784</v>
+        <v>-1.2141531127918954</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35504911442438791</v>
+        <v>-0.33007274821961152</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.30540792812545181</v>
+        <v>4.4361725108904349E-2</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>1.386780549348992</v>
+        <v>-1.9676296050354796</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3899848067296761</v>
+        <v>1.7261906110810972</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>1.262910527630785</v>
+        <v>0.4662941321088514</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.23976995965542303</v>
+        <v>0.84099909614165114</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.451016916426803</v>
+        <v>-0.72297862586783124</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.23000554197231571</v>
+        <v>1.9756195510997054</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.54375138844394089</v>
+        <v>-1.4439663110785039</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8346559434778849</v>
+        <v>-1.9912942041259858</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8942655570518561E-2</v>
+        <v>-1.9636491851402029</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27470918914597364</v>
+        <v>1.3957405957430837</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71401400498103751</v>
+        <v>0.80832278631960408</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1562412292476623</v>
+        <v>0.68369397803698417</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.7677210646512598</v>
+        <v>-0.66230122948178938</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7919637264546373</v>
+        <v>0.5312569252705992</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3636676766762461</v>
+        <v>-0.74190295962197172</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8020765588233782</v>
+        <v>1.9065200454168445</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4222701793652148</v>
+        <v>-1.8099160959575431</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9115008243088067</v>
+        <v>1.1349166145336058</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2706763457402332</v>
+        <v>1.2377531023735791</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.7089520193894474</v>
+        <v>-1.0260135684354972</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88946658450192828</v>
+        <v>1.1803928001844075</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.81763752225249187</v>
+        <v>1.6402974819596063</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7555711562252623</v>
+        <v>-1.5371367280294828</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87729997230721901</v>
+        <v>7.4575045459592815E-2</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64497838266346053</v>
+        <v>1.497812364796046</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6369789417203213</v>
+        <v>0.32240986138992422</v>
       </c>
     </row>
   </sheetData>
